--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_05_税率の管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_05_税率の管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12460"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -787,7 +787,7 @@
     <definedName name="_1998_12_31">#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]責準明細表!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TAX_5!$A$16:$BN$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TAX_5!$A$16:$BN$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="_FND2" localSheetId="1">#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="220">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -3159,12 +3159,55 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2024/08/01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E_本稼動_20102対応 直営店対応
+伊藤園フードサービスの収益認識部門入力用の税金コード9708、9710を追加</t>
+    <rPh sb="14" eb="19">
+      <t>チョクエイテンタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>003-7000-14716-1471600000-000000000-000000-0-0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>003-7000-41809-4180900000-000000000-000000-0-0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>003-7000-41809-4180900000-000000000-000000-0-0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>003-7000-14716-1471600000-000000000-000000-0-0</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3379,6 +3422,13 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3798,7 +3848,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3937,6 +3987,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4039,8 +4091,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4048,23 +4121,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4129,8 +4185,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
@@ -14708,1164 +14764,1172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.6328125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="2.6328125" style="24"/>
+    <col min="1" max="8" width="2.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:37" ht="11.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="104" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="110"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="109">
+    <row r="3" spans="1:37">
+      <c r="A3" s="111">
         <v>44936</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="112" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="111"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="112"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="113"/>
     </row>
-    <row r="4" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94">
+    <row r="4" spans="1:37" ht="26.25" customHeight="1">
+      <c r="A4" s="87">
         <v>45351</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="96"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="89"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="103"/>
+    <row r="5" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A5" s="97">
+        <v>45485</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="105"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="93"/>
+    <row r="6" spans="1:37">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="95"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="75"/>
+    <row r="7" spans="1:37">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="77"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
+    <row r="8" spans="1:37">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="77"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="84"/>
+    <row r="9" spans="1:37">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="86"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="75"/>
+    <row r="10" spans="1:37">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="77"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="69"/>
+    <row r="11" spans="1:37">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="71"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="69"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="71"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="69"/>
+    <row r="13" spans="1:37">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="71"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="69"/>
+    <row r="14" spans="1:37">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="71"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="69"/>
+    <row r="15" spans="1:37">
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="71"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="69"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="71"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="69"/>
+    <row r="17" spans="1:37">
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="71"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="69"/>
+    <row r="18" spans="1:37">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="71"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="69"/>
+    <row r="19" spans="1:37">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="71"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="69"/>
+    <row r="20" spans="1:37">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="71"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="69"/>
+    <row r="21" spans="1:37">
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="71"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="69"/>
+    <row r="22" spans="1:37">
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="71"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="68"/>
-      <c r="AK23" s="69"/>
+    <row r="23" spans="1:37">
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="71"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="69"/>
+    <row r="24" spans="1:37">
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="71"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="69"/>
+    <row r="25" spans="1:37">
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="71"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="69"/>
+    <row r="26" spans="1:37">
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="71"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="68"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="69"/>
+    <row r="27" spans="1:37">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="71"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="69"/>
+    <row r="28" spans="1:37">
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="71"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="69"/>
+    <row r="29" spans="1:37">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="71"/>
     </row>
-    <row r="30" spans="1:37" ht="11.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="64"/>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -15965,46 +16029,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="56" customWidth="1"/>
-    <col min="3" max="5" width="37.6328125" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="9.81640625" style="55"/>
+    <col min="1" max="1" width="5.44140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="56" customWidth="1"/>
+    <col min="3" max="5" width="37.6640625" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="9.88671875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:11" s="36" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="36" customFormat="1" ht="33.75" customHeight="1">
       <c r="B3" s="39" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1">
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:11" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="B5" s="40" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="36" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="36" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="14.4">
       <c r="A7" s="36"/>
       <c r="B7" s="41" t="s">
         <v>194</v>
@@ -16019,7 +16080,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="44" customFormat="1" ht="46.65" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="45" t="s">
         <v>200</v>
@@ -16034,21 +16095,21 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="44" customFormat="1" thickBot="1">
       <c r="A9" s="36"/>
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="50"/>
     </row>
-    <row r="10" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="54" customFormat="1">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
     </row>
-    <row r="11" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="36" customFormat="1" ht="7.5" customHeight="1">
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -16060,17 +16121,17 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:11" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="B12" s="40" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="B14" s="56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="56" customFormat="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56" t="s">
         <v>192</v>
@@ -16082,7 +16143,7 @@
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
     </row>
-    <row r="31" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="56" customFormat="1">
       <c r="A31" s="55"/>
       <c r="B31" s="56" t="s">
         <v>193</v>
@@ -16107,343 +16168,343 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:BN45"/>
+  <dimension ref="A1:BN47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="16" topLeftCell="AQ39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="AR46" sqref="AR46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" ht="15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" ht="15">
       <c r="A5" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" ht="15">
       <c r="A6" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" ht="15">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" ht="15">
       <c r="A8" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" ht="15">
       <c r="A9" s="57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" ht="15">
       <c r="A10" s="57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" ht="15">
       <c r="A11" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" ht="15">
       <c r="A12" s="59" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
+    <row r="13" spans="1:66" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="116" t="s">
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="116" t="s">
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="117"/>
-      <c r="AR13" s="117"/>
-      <c r="AS13" s="117"/>
-      <c r="AT13" s="117"/>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="117"/>
-      <c r="AW13" s="117"/>
-      <c r="AX13" s="117"/>
-      <c r="AY13" s="117"/>
-      <c r="AZ13" s="117"/>
-      <c r="BA13" s="117"/>
-      <c r="BB13" s="117"/>
-      <c r="BC13" s="117"/>
-      <c r="BD13" s="117"/>
-      <c r="BE13" s="117"/>
-      <c r="BF13" s="117"/>
-      <c r="BG13" s="117"/>
-      <c r="BH13" s="117"/>
-      <c r="BI13" s="117"/>
-      <c r="BJ13" s="117"/>
-      <c r="BK13" s="117"/>
-      <c r="BL13" s="117"/>
-      <c r="BM13" s="117"/>
-      <c r="BN13" s="118"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="119"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="119"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="119"/>
+      <c r="AY13" s="119"/>
+      <c r="AZ13" s="119"/>
+      <c r="BA13" s="119"/>
+      <c r="BB13" s="119"/>
+      <c r="BC13" s="119"/>
+      <c r="BD13" s="119"/>
+      <c r="BE13" s="119"/>
+      <c r="BF13" s="119"/>
+      <c r="BG13" s="119"/>
+      <c r="BH13" s="119"/>
+      <c r="BI13" s="119"/>
+      <c r="BJ13" s="119"/>
+      <c r="BK13" s="119"/>
+      <c r="BL13" s="119"/>
+      <c r="BM13" s="119"/>
+      <c r="BN13" s="120"/>
     </row>
-    <row r="14" spans="1:66" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="116" t="s">
+    <row r="14" spans="1:66" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="116" t="s">
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
-      <c r="AX14" s="117"/>
-      <c r="AY14" s="117"/>
-      <c r="AZ14" s="117"/>
-      <c r="BA14" s="117"/>
-      <c r="BB14" s="118"/>
-      <c r="BC14" s="116" t="s">
+      <c r="AO14" s="119"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="119"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="119"/>
+      <c r="AV14" s="119"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="119"/>
+      <c r="AY14" s="119"/>
+      <c r="AZ14" s="119"/>
+      <c r="BA14" s="119"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="BD14" s="117"/>
-      <c r="BE14" s="117"/>
-      <c r="BF14" s="117"/>
-      <c r="BG14" s="117"/>
-      <c r="BH14" s="118"/>
-      <c r="BI14" s="116" t="s">
+      <c r="BD14" s="119"/>
+      <c r="BE14" s="119"/>
+      <c r="BF14" s="119"/>
+      <c r="BG14" s="119"/>
+      <c r="BH14" s="120"/>
+      <c r="BI14" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="BJ14" s="117"/>
-      <c r="BK14" s="117"/>
-      <c r="BL14" s="117"/>
-      <c r="BM14" s="117"/>
-      <c r="BN14" s="118"/>
+      <c r="BJ14" s="119"/>
+      <c r="BK14" s="119"/>
+      <c r="BL14" s="119"/>
+      <c r="BM14" s="119"/>
+      <c r="BN14" s="120"/>
     </row>
-    <row r="15" spans="1:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119" t="s">
+    <row r="15" spans="1:66" ht="15">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="116" t="s">
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="116" t="s">
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="116" t="s">
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="116" t="s">
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AQ15" s="117"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="116" t="s">
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="116" t="s">
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="AW15" s="117"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="116" t="s">
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="AZ15" s="117"/>
-      <c r="BA15" s="117"/>
-      <c r="BB15" s="118"/>
-      <c r="BC15" s="116"/>
-      <c r="BD15" s="117"/>
-      <c r="BE15" s="117"/>
-      <c r="BF15" s="117"/>
-      <c r="BG15" s="117"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="116"/>
-      <c r="BJ15" s="117"/>
-      <c r="BK15" s="117"/>
-      <c r="BL15" s="117"/>
-      <c r="BM15" s="117"/>
-      <c r="BN15" s="118"/>
+      <c r="AZ15" s="119"/>
+      <c r="BA15" s="119"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="119"/>
+      <c r="BF15" s="119"/>
+      <c r="BG15" s="119"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="118"/>
+      <c r="BJ15" s="119"/>
+      <c r="BK15" s="119"/>
+      <c r="BL15" s="119"/>
+      <c r="BM15" s="119"/>
+      <c r="BN15" s="120"/>
     </row>
-    <row r="16" spans="1:66" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" ht="30">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -16643,7 +16704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" ht="15">
       <c r="A17" s="10" t="s">
         <v>72</v>
       </c>
@@ -16771,7 +16832,7 @@
       <c r="BM17" s="19"/>
       <c r="BN17" s="19"/>
     </row>
-    <row r="18" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" ht="15">
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
@@ -16899,7 +16960,7 @@
       <c r="BM18" s="19"/>
       <c r="BN18" s="19"/>
     </row>
-    <row r="19" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" ht="15">
       <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
@@ -17027,7 +17088,7 @@
       <c r="BM19" s="19"/>
       <c r="BN19" s="19"/>
     </row>
-    <row r="20" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" ht="15">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -17155,7 +17216,7 @@
       <c r="BM20" s="19"/>
       <c r="BN20" s="19"/>
     </row>
-    <row r="21" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" ht="15">
       <c r="A21" s="10" t="s">
         <v>72</v>
       </c>
@@ -17283,7 +17344,7 @@
       <c r="BM21" s="19"/>
       <c r="BN21" s="19"/>
     </row>
-    <row r="22" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" ht="15">
       <c r="A22" s="10" t="s">
         <v>72</v>
       </c>
@@ -17411,7 +17472,7 @@
       <c r="BM22" s="19"/>
       <c r="BN22" s="19"/>
     </row>
-    <row r="23" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" ht="15">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
@@ -17539,7 +17600,7 @@
       <c r="BM23" s="19"/>
       <c r="BN23" s="19"/>
     </row>
-    <row r="24" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" ht="15">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -17667,7 +17728,7 @@
       <c r="BM24" s="19"/>
       <c r="BN24" s="19"/>
     </row>
-    <row r="25" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" ht="15">
       <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
@@ -17795,7 +17856,7 @@
       <c r="BM25" s="19"/>
       <c r="BN25" s="19"/>
     </row>
-    <row r="26" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" ht="15">
       <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
@@ -17923,7 +17984,7 @@
       <c r="BM26" s="19"/>
       <c r="BN26" s="19"/>
     </row>
-    <row r="27" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" ht="15">
       <c r="A27" s="10" t="s">
         <v>72</v>
       </c>
@@ -18051,7 +18112,7 @@
       <c r="BM27" s="19"/>
       <c r="BN27" s="19"/>
     </row>
-    <row r="28" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" ht="15">
       <c r="A28" s="10" t="s">
         <v>72</v>
       </c>
@@ -18179,7 +18240,7 @@
       <c r="BM28" s="19"/>
       <c r="BN28" s="19"/>
     </row>
-    <row r="29" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:66" ht="15">
       <c r="A29" s="10" t="s">
         <v>72</v>
       </c>
@@ -18307,7 +18368,7 @@
       <c r="BM29" s="19"/>
       <c r="BN29" s="19"/>
     </row>
-    <row r="30" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:66" ht="15">
       <c r="A30" s="10" t="s">
         <v>72</v>
       </c>
@@ -18435,7 +18496,7 @@
       <c r="BM30" s="19"/>
       <c r="BN30" s="19"/>
     </row>
-    <row r="31" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:66" ht="15">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
@@ -18563,7 +18624,7 @@
       <c r="BM31" s="19"/>
       <c r="BN31" s="19"/>
     </row>
-    <row r="32" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" ht="15">
       <c r="A32" s="10" t="s">
         <v>72</v>
       </c>
@@ -18691,7 +18752,7 @@
       <c r="BM32" s="19"/>
       <c r="BN32" s="19"/>
     </row>
-    <row r="33" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:66" ht="15">
       <c r="A33" s="10" t="s">
         <v>72</v>
       </c>
@@ -18819,7 +18880,7 @@
       <c r="BM33" s="19"/>
       <c r="BN33" s="19"/>
     </row>
-    <row r="34" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" ht="15">
       <c r="A34" s="10" t="s">
         <v>72</v>
       </c>
@@ -18947,7 +19008,7 @@
       <c r="BM34" s="19"/>
       <c r="BN34" s="19"/>
     </row>
-    <row r="35" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" ht="15">
       <c r="A35" s="10" t="s">
         <v>72</v>
       </c>
@@ -19075,7 +19136,7 @@
       <c r="BM35" s="19"/>
       <c r="BN35" s="19"/>
     </row>
-    <row r="36" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" ht="15">
       <c r="A36" s="10" t="s">
         <v>72</v>
       </c>
@@ -19203,7 +19264,7 @@
       <c r="BM36" s="19"/>
       <c r="BN36" s="19"/>
     </row>
-    <row r="37" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:66" ht="15">
       <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
@@ -19331,7 +19392,7 @@
       <c r="BM37" s="19"/>
       <c r="BN37" s="19"/>
     </row>
-    <row r="38" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:66" ht="15">
       <c r="A38" s="10" t="s">
         <v>72</v>
       </c>
@@ -19459,7 +19520,7 @@
       <c r="BM38" s="19"/>
       <c r="BN38" s="19"/>
     </row>
-    <row r="39" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:66" ht="15">
       <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
@@ -19587,7 +19648,7 @@
       <c r="BM39" s="19"/>
       <c r="BN39" s="19"/>
     </row>
-    <row r="40" spans="1:66" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:66" ht="15">
       <c r="A40" s="10" t="s">
         <v>72</v>
       </c>
@@ -19715,337 +19776,596 @@
       <c r="BM40" s="19"/>
       <c r="BN40" s="19"/>
     </row>
-    <row r="41" spans="1:66" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:66" s="60" customFormat="1" ht="15">
+      <c r="A41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="T41" s="18"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM41" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS41" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
+    </row>
+    <row r="42" spans="1:66" s="60" customFormat="1" ht="15">
+      <c r="A42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S42" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="T42" s="18"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH42" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL42" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS42" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="19"/>
+      <c r="BB42" s="19"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
+      <c r="BF42" s="19"/>
+      <c r="BG42" s="19"/>
+      <c r="BH42" s="19"/>
+      <c r="BI42" s="19"/>
+      <c r="BJ42" s="19"/>
+      <c r="BK42" s="19"/>
+      <c r="BL42" s="19"/>
+      <c r="BM42" s="19"/>
+      <c r="BN42" s="19"/>
+    </row>
+    <row r="43" spans="1:66" ht="15">
+      <c r="A43" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E43" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="F43" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H43" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I43" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K43" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31" t="s">
+      <c r="L43" s="31"/>
+      <c r="M43" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="31" t="s">
+      <c r="N43" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="31" t="s">
+      <c r="O43" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="31" t="s">
+      <c r="P43" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Q41" s="31" t="s">
+      <c r="Q43" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="R41" s="32" t="s">
+      <c r="R43" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="S41" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="T41" s="33"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="30" t="s">
+      <c r="S43" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="T43" s="33"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AE41" s="30" t="s">
+      <c r="AE43" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30" t="s">
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AH41" s="30" t="s">
+      <c r="AH43" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="AI41" s="30" t="s">
+      <c r="AI43" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AJ41" s="30" t="s">
+      <c r="AJ43" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AK41" s="30" t="s">
+      <c r="AK43" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AL41" s="30" t="s">
+      <c r="AL43" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM41" s="30" t="s">
+      <c r="AM43" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AN41" s="26" t="s">
+      <c r="AN43" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS41" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
-      <c r="AV41" s="34"/>
-      <c r="AW41" s="34"/>
-      <c r="AX41" s="34"/>
-      <c r="AY41" s="34"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="34"/>
-      <c r="BB41" s="34"/>
-      <c r="BC41" s="34"/>
-      <c r="BD41" s="34"/>
-      <c r="BE41" s="34"/>
-      <c r="BF41" s="34"/>
-      <c r="BG41" s="34"/>
-      <c r="BH41" s="34"/>
-      <c r="BI41" s="34"/>
-      <c r="BJ41" s="34"/>
-      <c r="BK41" s="34"/>
-      <c r="BL41" s="34"/>
-      <c r="BM41" s="34"/>
-      <c r="BN41" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS43" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT43" s="34"/>
+      <c r="AU43" s="34"/>
+      <c r="AV43" s="34"/>
+      <c r="AW43" s="34"/>
+      <c r="AX43" s="34"/>
+      <c r="AY43" s="34"/>
+      <c r="AZ43" s="34"/>
+      <c r="BA43" s="34"/>
+      <c r="BB43" s="34"/>
+      <c r="BC43" s="34"/>
+      <c r="BD43" s="34"/>
+      <c r="BE43" s="34"/>
+      <c r="BF43" s="34"/>
+      <c r="BG43" s="34"/>
+      <c r="BH43" s="34"/>
+      <c r="BI43" s="34"/>
+      <c r="BJ43" s="34"/>
+      <c r="BK43" s="34"/>
+      <c r="BL43" s="34"/>
+      <c r="BM43" s="34"/>
+      <c r="BN43" s="34"/>
     </row>
-    <row r="42" spans="1:66" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+    <row r="44" spans="1:66" ht="15">
+      <c r="A44" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B44" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D44" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E44" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="30" t="s">
+      <c r="F44" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H44" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I44" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J44" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31" t="s">
+      <c r="L44" s="31"/>
+      <c r="M44" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="N44" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="O44" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="P44" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Q42" s="31" t="s">
+      <c r="Q44" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="R42" s="32" t="s">
+      <c r="R44" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="S42" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="T42" s="33"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="30" t="s">
+      <c r="S44" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="T44" s="33"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AE42" s="30" t="s">
+      <c r="AE44" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30" t="s">
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AH42" s="30" t="s">
+      <c r="AH44" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="AI42" s="30" t="s">
+      <c r="AI44" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AJ42" s="30" t="s">
+      <c r="AJ44" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AK42" s="30" t="s">
+      <c r="AK44" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AL42" s="30" t="s">
+      <c r="AL44" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM42" s="30" t="s">
+      <c r="AM44" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AN42" s="26" t="s">
+      <c r="AN44" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS42" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT42" s="34"/>
-      <c r="AU42" s="34"/>
-      <c r="AV42" s="34"/>
-      <c r="AW42" s="34"/>
-      <c r="AX42" s="34"/>
-      <c r="AY42" s="34"/>
-      <c r="AZ42" s="34"/>
-      <c r="BA42" s="34"/>
-      <c r="BB42" s="34"/>
-      <c r="BC42" s="34"/>
-      <c r="BD42" s="34"/>
-      <c r="BE42" s="34"/>
-      <c r="BF42" s="34"/>
-      <c r="BG42" s="34"/>
-      <c r="BH42" s="34"/>
-      <c r="BI42" s="34"/>
-      <c r="BJ42" s="34"/>
-      <c r="BK42" s="34"/>
-      <c r="BL42" s="34"/>
-      <c r="BM42" s="34"/>
-      <c r="BN42" s="34"/>
+      <c r="AO44" s="34"/>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS44" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT44" s="34"/>
+      <c r="AU44" s="34"/>
+      <c r="AV44" s="34"/>
+      <c r="AW44" s="34"/>
+      <c r="AX44" s="34"/>
+      <c r="AY44" s="34"/>
+      <c r="AZ44" s="34"/>
+      <c r="BA44" s="34"/>
+      <c r="BB44" s="34"/>
+      <c r="BC44" s="34"/>
+      <c r="BD44" s="34"/>
+      <c r="BE44" s="34"/>
+      <c r="BF44" s="34"/>
+      <c r="BG44" s="34"/>
+      <c r="BH44" s="34"/>
+      <c r="BI44" s="34"/>
+      <c r="BJ44" s="34"/>
+      <c r="BK44" s="34"/>
+      <c r="BL44" s="34"/>
+      <c r="BM44" s="34"/>
+      <c r="BN44" s="34"/>
     </row>
-    <row r="43" spans="1:66" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="19"/>
-      <c r="BB43" s="19"/>
-      <c r="BC43" s="19"/>
-      <c r="BD43" s="19"/>
-      <c r="BE43" s="19"/>
-      <c r="BF43" s="19"/>
-      <c r="BG43" s="19"/>
-      <c r="BH43" s="19"/>
-      <c r="BI43" s="19"/>
-      <c r="BJ43" s="19"/>
-      <c r="BK43" s="19"/>
-      <c r="BL43" s="19"/>
-      <c r="BM43" s="19"/>
-      <c r="BN43" s="19"/>
+    <row r="45" spans="1:66" ht="15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="19"/>
+      <c r="BB45" s="19"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="19"/>
+      <c r="BE45" s="19"/>
+      <c r="BF45" s="19"/>
+      <c r="BG45" s="19"/>
+      <c r="BH45" s="19"/>
+      <c r="BI45" s="19"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="19"/>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="19"/>
     </row>
-    <row r="45" spans="1:66" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="58" t="s">
+    <row r="46" spans="1:66">
+      <c r="AR46" s="61"/>
+    </row>
+    <row r="47" spans="1:66" ht="15">
+      <c r="A47" s="58" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A16:BN42"/>
+  <autoFilter ref="A16:BN44"/>
   <mergeCells count="23">
     <mergeCell ref="X13:BN13"/>
     <mergeCell ref="R14:W14"/>
